--- a/public/static/excels/mon-hoc-example.xlsx
+++ b/public/static/excels/mon-hoc-example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\projects\b4e_new\school\frontend\public\static\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoangNam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1069944-0021-4310-9658-A27F1A7ED83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F9BCF9-A0FA-4A0A-AF53-2CA243A7CFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{170F2479-9146-483E-AAFF-65557041C337}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B3549C81-13AD-4252-9D62-37493F408BAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,36 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
+    <t>EM1170</t>
+  </si>
+  <si>
+    <t>Pháp luật đại cương</t>
+  </si>
+  <si>
+    <t>Chung toàn trường</t>
+  </si>
+  <si>
+    <t>SSH1050</t>
+  </si>
+  <si>
+    <t>Tư tưởng HCM</t>
+  </si>
+  <si>
+    <t>IT1110</t>
+  </si>
+  <si>
+    <t>Tin học đại cương</t>
+  </si>
+  <si>
+    <t>BB khối kỹ thuật</t>
+  </si>
+  <si>
+    <t>MI1110</t>
+  </si>
+  <si>
+    <t>Giải tích I</t>
+  </si>
+  <si>
     <t>Mã môn học</t>
   </si>
   <si>
@@ -49,43 +79,13 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>EM1170</t>
-  </si>
-  <si>
-    <t>Pháp luật đại cương</t>
-  </si>
-  <si>
-    <t>Chung toàn trường</t>
-  </si>
-  <si>
-    <t>SSH1050</t>
-  </si>
-  <si>
-    <t>Tư tưởng HCM</t>
-  </si>
-  <si>
-    <t>IT1110</t>
-  </si>
-  <si>
-    <t>Tin học đại cương</t>
-  </si>
-  <si>
-    <t>BB khối kỹ thuật</t>
-  </si>
-  <si>
-    <t>MI1110</t>
-  </si>
-  <si>
-    <t>Giải tích I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +93,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,12 +122,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,107 +453,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C9F8B4-D43C-4434-BC0C-1C9D98A72125}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E14A91-2E06-4C05-885D-C987466795EF}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>